--- a/TABELA_python.xlsx
+++ b/TABELA_python.xlsx
@@ -475,14 +475,14 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="19.7109375" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col width="19.7109375" customWidth="1" style="2" min="1" max="8"/>
-    <col width="19.7109375" customWidth="1" style="2" min="9" max="16384"/>
+    <col width="19.7109375" customWidth="1" style="2" min="1" max="11"/>
+    <col width="19.7109375" customWidth="1" style="2" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>Cod</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -537,17 +537,19 @@
       <c r="A7" s="4" t="n">
         <v>333</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>OK 24/08  20/07</t>
-        </is>
+      <c r="B7" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
+          <t>OK 24/08  20</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="n"/>
       <c r="G7" s="3" t="n"/>
     </row>
@@ -555,10 +557,29 @@
       <c r="A8" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="4" t="n"/>
+      <c r="B8" s="4" t="n">
+        <v>555</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>OK 24/08  20</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>OK 24/08  20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="4" t="n"/>

--- a/TABELA_python.xlsx
+++ b/TABELA_python.xlsx
@@ -476,13 +476,15 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="19.7109375" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col width="19.7109375" customWidth="1" style="2" min="1" max="11"/>
-    <col width="19.7109375" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="19.7109375" customWidth="1" style="2" min="1" max="2"/>
+    <col width="26.5703125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="19.7109375" customWidth="1" style="2" min="4" max="13"/>
+    <col width="19.7109375" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1"/>
@@ -562,24 +564,15 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>OK 24/08  20</t>
+          <t>OK 1/11  20/08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>OK 24/08  20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="4" t="n"/>
